--- a/SEM Photos for Beta Testers/FiberDiameter_Measurements.xlsx
+++ b/SEM Photos for Beta Testers/FiberDiameter_Measurements.xlsx
@@ -5,21 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fda-my.sharepoint.com/personal/andrew_martin_fda_gov1/Documents/Documents/Beta Test/PPECalculatorBetaTest-main/SEM Photos for Beta Testers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fda-my.sharepoint.com/personal/andrew_martin_fda_gov1/Documents/Documents/GitHub/PPECalculatorBetaTest/SEM Photos for Beta Testers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FE24A6E-7215-4B51-BAB2-B0E8C5E4E2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A91FDFE-F450-44C9-82AA-33C4382F7DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{3EC19E18-9197-4F32-AB79-0C89B667D00C}"/>
+    <workbookView xWindow="1038" yWindow="1038" windowWidth="17280" windowHeight="8994" activeTab="1" xr2:uid="{3EC19E18-9197-4F32-AB79-0C89B667D00C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data Trimmer" sheetId="3" r:id="rId1"/>
-    <sheet name="Trimmed Data" sheetId="1" r:id="rId2"/>
-    <sheet name="Sample Mean Fiber Diameter" sheetId="2" r:id="rId3"/>
+    <sheet name="Segmented Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sample Mean Fiber Diameter" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Trimmer'!$B$2:$B$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Trimmed Data'!$B$2:$B$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Segmented Data'!$J$2:$J$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="19">
   <si>
     <t>Sample</t>
   </si>
@@ -99,9 +97,6 @@
   </si>
   <si>
     <t>Super Pixel Fiber Diameter</t>
-  </si>
-  <si>
-    <t>Mean</t>
   </si>
 </sst>
 </file>
@@ -520,73 +515,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDCDCD2-E7A1-4260-9AC1-9655DDD9B9D2}">
-  <dimension ref="A1:L7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="2" max="2" width="18.41796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="3"/>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="3" t="e">
-        <f>QUARTILE(B3:B17,1)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="e">
-        <f>QUARTILE(B3:B17,3)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="e">
-        <f>F1-D1</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="e">
-        <f>D1-(1.5*H1)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" t="e">
-        <f>F1+(1.5*H1)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="3"/>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1858CECE-91BA-41DE-A972-F296FDB7638C}">
-  <dimension ref="A1:X2"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3:J16"/>
@@ -596,7 +527,8 @@
   <cols>
     <col min="2" max="2" width="17.68359375" customWidth="1"/>
     <col min="3" max="3" width="18.05078125" customWidth="1"/>
-    <col min="11" max="11" width="14.578125" customWidth="1"/>
+    <col min="10" max="10" width="18.3125" customWidth="1"/>
+    <col min="11" max="11" width="13.15625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.55000000000000004">
@@ -628,74 +560,326 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="e">
-        <f>AVERAGE(B3:B18)</f>
-        <v>#DIV/0!</v>
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="e">
+        <f>QUARTILE(B3:B17,1)</f>
+        <v>#NUM!</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="e">
-        <f>AVERAGE(F3:F15)</f>
-        <v>#DIV/0!</v>
+        <v>9</v>
+      </c>
+      <c r="H2" s="3" t="e">
+        <f>QUARTILE(F3:F17,1)</f>
+        <v>#NUM!</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="e">
-        <f>AVERAGE(J3:J18)</f>
-        <v>#DIV/0!</v>
+        <v>9</v>
+      </c>
+      <c r="L2" s="3">
+        <f>QUARTILE(J3:J17,1)</f>
+        <v>3.6505000000000001</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" t="e">
-        <f>AVERAGE(N3:N18)</f>
-        <v>#DIV/0!</v>
+        <v>9</v>
+      </c>
+      <c r="P2" s="3" t="e">
+        <f>QUARTILE(N3:N17,1)</f>
+        <v>#NUM!</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" t="e">
-        <f>AVERAGE(R3:R18)</f>
-        <v>#DIV/0!</v>
+        <v>9</v>
+      </c>
+      <c r="T2" s="3" t="e">
+        <f>QUARTILE(R3:R17,1)</f>
+        <v>#NUM!</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="X2" t="e">
-        <f>AVERAGE(V3:V18)</f>
-        <v>#DIV/0!</v>
+        <v>9</v>
+      </c>
+      <c r="X2" s="3" t="e">
+        <f>QUARTILE(V3:V17,1)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="e">
+        <f>QUARTILE(B3:B17,3)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="e">
+        <f>QUARTILE(F3:F17,3)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J3">
+        <v>4.2260999999999997</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3">
+        <f>QUARTILE(J3:J17,3)</f>
+        <v>4.8305499999999997</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" t="e">
+        <f>QUARTILE(N3:N17,3)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" t="e">
+        <f>QUARTILE(R3:R17,3)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X3" t="e">
+        <f>QUARTILE(V3:V17,3)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="e">
+        <f>D3-D2</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="e">
+        <f>H3-H2</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J4">
+        <v>4.9474999999999998</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <f>L3-L2</f>
+        <v>1.1800499999999996</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" t="e">
+        <f>P3-P2</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" t="e">
+        <f>T3-T2</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X4" t="e">
+        <f>X3-X2</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="e">
+        <f>D2-(1.5*D4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="e">
+        <f>H2-(1.5*H4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J5">
+        <v>5.1081000000000003</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5">
+        <f>L2-(1.5*L4)</f>
+        <v>1.8804250000000007</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" t="e">
+        <f>P2-(1.5*P4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" t="e">
+        <f>T2-(1.5*T4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X5" t="e">
+        <f>X2-(1.5*X4)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="e">
+        <f>D3+(1.5*D4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="e">
+        <f>H3+(1.5*H4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J6">
+        <v>3.2574999999999998</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6">
+        <f>L3+(1.5*L4)</f>
+        <v>6.6006249999999991</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" t="e">
+        <f>P3+(1.5*P4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T6" t="e">
+        <f>T3+(1.5*T4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X6" t="e">
+        <f>X3+(1.5*X4)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="J7">
+        <v>3.21</v>
+      </c>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="J8">
+        <v>4.3308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="J9">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="J10">
+        <v>3.2355</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="J11">
+        <v>4.5552999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="J12">
+        <v>4.7135999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="J13">
+        <v>3.0726</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="J14">
+        <v>4.0434999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="J15">
+        <v>4.7069000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="J16">
+        <v>5.2163000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J17">
+        <v>7.1066000000000003</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="J2:J17" xr:uid="{1858CECE-91BA-41DE-A972-F296FDB7638C}">
+    <filterColumn colId="0">
+      <customFilters and="1">
+        <customFilter operator="greaterThanOrEqual" val="1.880425"/>
+        <customFilter operator="lessThanOrEqual" val="6.600625"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B320AD9-042B-4C8C-ABF6-1C44A7D74F9F}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -722,25 +906,34 @@
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="e">
+      <c r="B2">
+        <v>3.5</v>
+      </c>
+      <c r="C2">
         <f>STDEV(B2:B4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D2" t="e">
+        <v>1.2583057392117925</v>
+      </c>
+      <c r="D2">
         <f>AVERAGE(B2:B4)</f>
-        <v>#DIV/0!</v>
+        <v>4.833333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
         <v>5</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
